--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_27.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2125481.645628252</v>
+        <v>2122464.055227316</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>319.1339639110209</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>142.3407393867359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48.97699675700453</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>173.9313784350749</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>193.4171325760642</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +911,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>330.6682555872955</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,7 +1054,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>187.5797976477833</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>27.45797858609784</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>230.9476870183002</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481174</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>119.5769914598733</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>111.8996178809213</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.9154389188782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
@@ -1424,7 +1424,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1543,10 +1543,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1591,10 +1591,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>215.0546805228902</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1661,10 +1661,10 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>57.64843562452408</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>66.140852155354</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,13 +1822,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>61.47226067794325</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>41.88171928086715</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,19 +2287,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>103.3388316365583</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>190.7955476484036</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>259.0330192564637</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>71.87560742459289</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>174.3062600431768</v>
       </c>
     </row>
     <row r="29">
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722607</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>24.29718497126443</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3044,7 +3044,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
         <v>81.77913505274074</v>
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,19 +3235,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>136.5396561961282</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>187.8326399421082</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3484,13 +3484,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>145.8066325228118</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3664,22 +3664,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>21.66118621575617</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3721,10 +3721,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>94.16481274941266</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3907,16 +3907,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,16 +3955,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>14.73664328357051</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>174.3062600431768</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>38.20552045454374</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,22 +4183,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1595.875667274026</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>1595.875667274026</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="D2" t="n">
-        <v>1595.875667274026</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861747</v>
+        <v>529.7664971293364</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2092.422847177207</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1739.654191907093</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1739.654191907093</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1595.875667274026</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170821</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359551</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692481</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4434,16 +4434,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207637</v>
@@ -4452,7 +4452,7 @@
         <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>678.65727031047</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="C4" t="n">
-        <v>509.7210873825632</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D4" t="n">
-        <v>359.6044479702274</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>552.4407231609042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>959.5129866402885</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="C5" t="n">
-        <v>959.5129866402885</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D5" t="n">
-        <v>959.5129866402885</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>1528.349585887292</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>1154.883827626212</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y5" t="n">
-        <v>1154.883827626212</v>
+        <v>2131.93457488582</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.535689181137</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4756,19 +4756,19 @@
         <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>509.2375219814871</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>509.2375219814871</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>509.2375219814871</v>
       </c>
       <c r="X7" t="n">
-        <v>670.9767331549068</v>
+        <v>281.2479710834698</v>
       </c>
       <c r="Y7" t="n">
-        <v>450.1841540113767</v>
+        <v>281.2479710834698</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1405.321187657107</v>
+        <v>686.9351304176948</v>
       </c>
       <c r="C8" t="n">
-        <v>1036.358670716696</v>
+        <v>686.9351304176948</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>686.9351304176948</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>301.1468778194506</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>1916.245359491377</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W8" t="n">
-        <v>1795.460519632919</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="X8" t="n">
-        <v>1795.460519632919</v>
+        <v>1463.674302457628</v>
       </c>
       <c r="Y8" t="n">
-        <v>1405.321187657107</v>
+        <v>1073.534970481817</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036443</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641996</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598714</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>257.3478788207</v>
+        <v>437.5354894428046</v>
       </c>
       <c r="C10" t="n">
-        <v>257.3478788207</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="D10" t="n">
-        <v>257.3478788207</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="E10" t="n">
-        <v>257.3478788207</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="F10" t="n">
-        <v>257.3478788207</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>257.3478788207</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.712065060056</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>698.712065060056</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="S10" t="n">
-        <v>698.712065060056</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="T10" t="n">
-        <v>471.4038777286578</v>
+        <v>437.5354894428046</v>
       </c>
       <c r="U10" t="n">
-        <v>471.4038777286578</v>
+        <v>437.5354894428046</v>
       </c>
       <c r="V10" t="n">
-        <v>471.4038777286578</v>
+        <v>437.5354894428046</v>
       </c>
       <c r="W10" t="n">
-        <v>471.4038777286578</v>
+        <v>437.5354894428046</v>
       </c>
       <c r="X10" t="n">
-        <v>471.4038777286578</v>
+        <v>437.5354894428046</v>
       </c>
       <c r="Y10" t="n">
-        <v>257.3478788207</v>
+        <v>437.5354894428046</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5036,16 +5036,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5057,34 +5057,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5239,10 +5239,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="14">
@@ -5273,19 +5273,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5297,19 +5297,19 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
@@ -5343,37 +5343,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>324.3840174432676</v>
+        <v>1096.475226584133</v>
       </c>
       <c r="C16" t="n">
-        <v>155.4478345153607</v>
+        <v>927.5390436562259</v>
       </c>
       <c r="D16" t="n">
-        <v>155.4478345153607</v>
+        <v>777.4224042438901</v>
       </c>
       <c r="E16" t="n">
-        <v>155.4478345153607</v>
+        <v>629.509310661497</v>
       </c>
       <c r="F16" t="n">
-        <v>155.4478345153607</v>
+        <v>482.6193631635866</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028583</v>
+        <v>314.4440414834072</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>164.0260330313505</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5470,16 +5470,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>1244.231782352015</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W16" t="n">
-        <v>954.8146123150548</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X16" t="n">
-        <v>726.8250614170374</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y16" t="n">
-        <v>506.0324822735073</v>
+        <v>1278.123691414372</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,25 +5498,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,7 +5531,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>773.166147484815</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>604.2299645569082</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>454.1133251445724</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>306.2002315621793</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>159.3102840642689</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1090.100879744681</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>954.8146123150548</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5765,37 +5765,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5817,34 +5817,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>233.7852434110079</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>644.6755122555206</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619849</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>289.9398668627134</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C22" t="n">
-        <v>247.6350999123426</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D22" t="n">
-        <v>247.6350999123426</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5908,16 +5908,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V22" t="n">
-        <v>1209.787631771461</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W22" t="n">
-        <v>920.3704617345006</v>
+        <v>1194.613602254709</v>
       </c>
       <c r="X22" t="n">
-        <v>692.3809108364833</v>
+        <v>966.6240513566914</v>
       </c>
       <c r="Y22" t="n">
-        <v>471.5883316929531</v>
+        <v>745.8314722131613</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5966,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,28 +5987,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6020,16 +6020,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6054,34 +6054,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636253</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3459.155393916675</v>
+        <v>3628.091576844582</v>
       </c>
       <c r="C25" t="n">
         <v>3459.155393916675</v>
@@ -6169,28 +6169,28 @@
         <v>4860.854573014292</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S25" t="n">
-        <v>4668.131797611864</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T25" t="n">
-        <v>4668.131797611864</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U25" t="n">
-        <v>4379.003158825422</v>
+        <v>4064.424529880708</v>
       </c>
       <c r="V25" t="n">
-        <v>4379.003158825422</v>
+        <v>3809.740041674821</v>
       </c>
       <c r="W25" t="n">
-        <v>4089.585988788462</v>
+        <v>3809.740041674821</v>
       </c>
       <c r="X25" t="n">
-        <v>3861.596437890445</v>
+        <v>3809.740041674821</v>
       </c>
       <c r="Y25" t="n">
-        <v>3640.803858746915</v>
+        <v>3809.740041674821</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6218,19 +6218,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6239,7 +6239,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899127</v>
@@ -6257,19 +6257,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6321,10 +6321,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>506.9302197295771</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C28" t="n">
-        <v>337.9940368016702</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D28" t="n">
-        <v>337.9940368016702</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E28" t="n">
-        <v>337.9940368016702</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F28" t="n">
-        <v>337.9940368016702</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G28" t="n">
-        <v>169.8187151214908</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>909.3712637033469</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W28" t="n">
-        <v>909.3712637033469</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X28" t="n">
-        <v>909.3712637033469</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y28" t="n">
-        <v>688.5786845598168</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155903</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690732</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409605</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748354</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742898</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769783</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373968</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805656</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.49815909844</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>2500.819361250802</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>2911.709630095315</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>3158.474758001779</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>4075.197584164471</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>4555.115143601277</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916991</v>
       </c>
       <c r="R30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S30" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098066</v>
       </c>
       <c r="T30" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021844</v>
       </c>
       <c r="U30" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641231</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409488</v>
       </c>
       <c r="W30" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681287</v>
       </c>
       <c r="X30" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475754</v>
       </c>
       <c r="Y30" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.9276637108</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>121.7597025423711</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>121.7597025423711</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>121.7597025423711</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>121.7597025423711</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>121.7597025423711</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>121.7597025423711</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6625,46 +6625,46 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974663</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.48306298006</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585743</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473451</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262957</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011507</v>
+        <v>786.082206476515</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706282</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>531.3977182706282</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028587</v>
+        <v>303.4081673726108</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>303.4081673726108</v>
       </c>
     </row>
     <row r="32">
@@ -6680,19 +6680,19 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
@@ -6701,25 +6701,25 @@
         <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>216.9038434870658</v>
+        <v>506.7814158330673</v>
       </c>
       <c r="C34" t="n">
-        <v>216.9038434870658</v>
+        <v>506.7814158330673</v>
       </c>
       <c r="D34" t="n">
-        <v>216.9038434870658</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E34" t="n">
-        <v>216.9038434870658</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
@@ -6883,25 +6883,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1360.997425915349</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1137.212010704854</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>1137.212010704854</v>
       </c>
       <c r="V34" t="n">
-        <v>955.1031435655738</v>
+        <v>1137.212010704854</v>
       </c>
       <c r="W34" t="n">
-        <v>665.6859735286132</v>
+        <v>1137.212010704854</v>
       </c>
       <c r="X34" t="n">
-        <v>437.6964226305959</v>
+        <v>909.2224598068372</v>
       </c>
       <c r="Y34" t="n">
-        <v>216.9038434870658</v>
+        <v>688.429880663307</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6929,19 +6929,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N36" t="n">
-        <v>2032.925401907738</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O36" t="n">
-        <v>2312.465467126435</v>
+        <v>4075.197584164472</v>
       </c>
       <c r="P36" t="n">
-        <v>2517.487947908644</v>
+        <v>4555.115143601278</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="R36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S36" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T36" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U36" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W36" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X36" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y36" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="37">
@@ -7117,25 +7117,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1309.18633122244</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T37" t="n">
-        <v>1085.400916011945</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U37" t="n">
-        <v>796.2722772255036</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V37" t="n">
-        <v>796.2722772255036</v>
+        <v>874.927113122792</v>
       </c>
       <c r="W37" t="n">
-        <v>506.8551071885429</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X37" t="n">
-        <v>278.8655562905255</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y37" t="n">
         <v>278.8655562905255</v>
@@ -7151,22 +7151,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7199,22 +7199,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,25 +7251,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>844.0280401273993</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>844.0280401273993</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7357,25 +7357,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1387.841167119728</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U40" t="n">
-        <v>1098.712528333286</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V40" t="n">
-        <v>844.0280401273993</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W40" t="n">
-        <v>844.0280401273993</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>844.0280401273993</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>844.0280401273993</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7391,22 +7391,22 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7418,7 +7418,7 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
         <v>3183.709822619127</v>
@@ -7427,31 +7427,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7476,40 +7476,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>564.1830073829216</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C43" t="n">
-        <v>395.2468244550147</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D43" t="n">
-        <v>245.130185042679</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7603,16 +7603,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>1484.03077229167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W43" t="n">
-        <v>1194.613602254709</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X43" t="n">
-        <v>966.6240513566914</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y43" t="n">
-        <v>745.8314722131613</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7713,40 +7713,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>773.454678735334</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C46" t="n">
-        <v>604.5184958074271</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D46" t="n">
-        <v>454.4018563950914</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7831,25 +7831,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>955.1031435655738</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>955.1031435655738</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y46" t="n">
-        <v>955.1031435655738</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747075</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270196</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719086</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,28 +8769,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>85.30006332127823</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,19 +9003,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>96.0374492781458</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298008</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,7 +9720,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776741</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>277.6717966208048</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10604,7 +10604,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10674,16 +10674,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>277.6717966208048</v>
       </c>
       <c r="Q36" t="n">
-        <v>8.406710013101332</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928317</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298108</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11385,19 +11385,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>96.03744927814694</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>10.654974866147</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.278393308918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>108.8451328388535</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>44.278393308918</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>105.0213077854343</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23938,13 +23938,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>79.43092547709136</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>125.3651018177607</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,19 +24175,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>183.1841667000327</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>7.125262335199608</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>27.20433314211363</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>77.03822094294324</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>44.278393308918</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24853,7 +24853,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>124.6166433962717</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24886,7 +24886,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>26.93116351641916</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25093,7 +25093,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,19 +25123,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>61.38115378747509</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>10.08817004149503</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,13 +25372,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>140.7163658137792</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25552,22 +25552,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>126.9542868024562</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25597,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,10 +25609,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25795,16 +25795,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,16 +25843,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>237.4010000402575</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>44.278393308918</v>
       </c>
     </row>
     <row r="44">
@@ -26020,25 +26020,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>108.2284421920254</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26071,22 +26071,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>854970.3543669374</v>
+        <v>854970.3543669375</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>854970.3543669374</v>
+        <v>854970.3543669375</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>854970.3543669374</v>
+        <v>854970.3543669375</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>854970.3543669375</v>
+        <v>854970.3543669373</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>854970.3543669374</v>
+        <v>854970.3543669375</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583909</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583909</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583909</v>
@@ -26323,34 +26323,34 @@
         <v>527889.2306459069</v>
       </c>
       <c r="F2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="G2" t="n">
+        <v>527889.2306459073</v>
+      </c>
+      <c r="H2" t="n">
+        <v>527889.2306459073</v>
+      </c>
+      <c r="I2" t="n">
+        <v>527889.2306459068</v>
+      </c>
+      <c r="J2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="K2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="L2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="M2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="N2" t="n">
         <v>527889.2306459071</v>
       </c>
-      <c r="G2" t="n">
+      <c r="O2" t="n">
         <v>527889.230645907</v>
-      </c>
-      <c r="H2" t="n">
-        <v>527889.230645907</v>
-      </c>
-      <c r="I2" t="n">
-        <v>527889.2306459071</v>
-      </c>
-      <c r="J2" t="n">
-        <v>527889.2306459072</v>
-      </c>
-      <c r="K2" t="n">
-        <v>527889.2306459069</v>
-      </c>
-      <c r="L2" t="n">
-        <v>527889.2306459072</v>
-      </c>
-      <c r="M2" t="n">
-        <v>527889.2306459069</v>
-      </c>
-      <c r="N2" t="n">
-        <v>527889.2306459069</v>
-      </c>
-      <c r="O2" t="n">
-        <v>527889.2306459071</v>
       </c>
       <c r="P2" t="n">
         <v>527889.2306459069</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.482032298052218e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156359.7437417554</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>156359.7437417554</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156359.7437417554</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>14711.50065430948</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="L4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="N4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="P4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143909</v>
       </c>
     </row>
     <row r="5">
@@ -26473,16 +26473,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26494,7 +26494,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26506,10 +26506,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-274983.5063613183</v>
+        <v>-275398.7208707855</v>
       </c>
       <c r="C6" t="n">
-        <v>314984.3728532261</v>
+        <v>314569.158343759</v>
       </c>
       <c r="D6" t="n">
-        <v>314984.3728532261</v>
+        <v>314569.1583437589</v>
       </c>
       <c r="E6" t="n">
-        <v>-103969.6324340154</v>
+        <v>-104303.8014011448</v>
       </c>
       <c r="F6" t="n">
-        <v>421190.404042881</v>
+        <v>420856.2350757513</v>
       </c>
       <c r="G6" t="n">
-        <v>421190.4040428809</v>
+        <v>420856.2350757517</v>
       </c>
       <c r="H6" t="n">
-        <v>421190.4040428805</v>
+        <v>420856.2350757517</v>
       </c>
       <c r="I6" t="n">
-        <v>421190.404042881</v>
+        <v>420856.2350757511</v>
       </c>
       <c r="J6" t="n">
-        <v>244767.1848502885</v>
+        <v>244433.0158831582</v>
       </c>
       <c r="K6" t="n">
-        <v>421190.4040428807</v>
+        <v>420856.2350757513</v>
       </c>
       <c r="L6" t="n">
-        <v>421190.4040428811</v>
+        <v>420856.2350757512</v>
       </c>
       <c r="M6" t="n">
-        <v>286389.3888090437</v>
+        <v>286055.2198419143</v>
       </c>
       <c r="N6" t="n">
-        <v>421190.4040428807</v>
+        <v>420856.2350757514</v>
       </c>
       <c r="O6" t="n">
-        <v>421190.404042881</v>
+        <v>420856.2350757513</v>
       </c>
       <c r="P6" t="n">
-        <v>421190.4040428807</v>
+        <v>420856.2350757512</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26750,13 +26750,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>94.65020610977405</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>243.8971992693177</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>130.8549834249328</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>44.65327491701987</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>189.3167090874164</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>55.56968306875808</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27792,7 +27792,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,7 +27828,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>98.70207659419441</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>198.2516768029393</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>175.9283587234112</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>229.6639772575397</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,13 +28023,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>113.135487577163</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.669214433216581</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,16 +31513,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31534,25 +31534,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,31 +31592,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104652</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,43 +32546,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337673</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104652</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,43 +32783,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337673</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>54.37527471535575</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624598</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,13 +35331,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>367.6637655623863</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
@@ -35744,7 +35744,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349819</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>137.9476282330525</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.556183571462</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349582</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560245</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091989</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
@@ -36689,13 +36689,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523295</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36999,7 +36999,7 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056001</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
@@ -37324,7 +37324,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R35" t="n">
         <v>59.8253897034981</v>
@@ -37394,16 +37394,16 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523295</v>
       </c>
       <c r="Q36" t="n">
-        <v>96.41974279817546</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>10.73738595686865</v>
@@ -37549,7 +37549,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221109</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38105,19 +38105,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>429.2320226761599</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2122464.055227316</v>
+        <v>2197993.724892122</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>268.352823951585</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -671,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>319.1339639110209</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -719,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>200.5196897930034</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>173.9313784350749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>297.3308204398289</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,13 +904,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,10 +946,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>330.6682555872955</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>84.16790000022172</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>187.5797976477833</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>210.3346776731617</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,16 +1141,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>230.9476870183002</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1297,13 +1299,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>128.728253158928</v>
       </c>
       <c r="T10" t="n">
-        <v>111.8996178809213</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1382,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>33.35146980185858</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>215.0546805228902</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1661,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>46.2530778377178</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1783,7 +1785,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>66.140852155354</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1831,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2005,16 +2007,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>61.47226067794325</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2059,16 +2061,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>1.900916560956118</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>64.46944256011305</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2299,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>103.3388316365583</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2321,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>13.60014786677565</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>259.0330192564637</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2725,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>78.77251716083951</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>174.3062600431768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2798,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2965,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.29718497126443</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,7 +3003,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750046</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3010,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3187,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>136.5396561961282</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>217.1254298001812</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3320,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>116.6909399905419</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>145.8066325228118</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3673,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>58.4016882597743</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>94.16481274941266</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
@@ -3794,7 +3796,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -3916,7 +3918,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>4.467071307536031</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4186,10 +4188,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151918</v>
+        <v>206.8064269214864</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1309.714918859356</v>
+        <v>1001.280783616703</v>
       </c>
       <c r="C2" t="n">
-        <v>940.7524019189439</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="D2" t="n">
-        <v>940.7524019189439</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="E2" t="n">
-        <v>940.7524019189439</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F2" t="n">
-        <v>529.7664971293364</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4328,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4367,13 +4369,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1309.714918859356</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1309.714918859356</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4413,19 +4415,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>370.7922583306645</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="C4" t="n">
-        <v>201.8560754027576</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="Y4" t="n">
-        <v>552.4407231609042</v>
+        <v>348.0202652891861</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1745.334734821698</v>
+        <v>1359.546482223453</v>
       </c>
       <c r="C5" t="n">
-        <v>1376.372217881286</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4565,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X5" t="n">
-        <v>2465.942913862886</v>
+        <v>2050.019976259699</v>
       </c>
       <c r="Y5" t="n">
-        <v>2131.93457488582</v>
+        <v>1659.880644283887</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>285.8510101265796</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>285.8510101265796</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>285.8510101265796</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>285.8510101265796</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>138.9610626286692</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>138.9610626286692</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>138.9610626286692</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>509.2375219814871</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V7" t="n">
-        <v>509.2375219814871</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W7" t="n">
-        <v>509.2375219814871</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X7" t="n">
-        <v>281.2479710834698</v>
+        <v>285.8510101265796</v>
       </c>
       <c r="Y7" t="n">
-        <v>281.2479710834698</v>
+        <v>285.8510101265796</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>686.9351304176948</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="C8" t="n">
-        <v>686.9351304176948</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="D8" t="n">
-        <v>686.9351304176948</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E8" t="n">
-        <v>301.1468778194506</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4820,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2189.908715988822</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.140060718708</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X8" t="n">
-        <v>1463.674302457628</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y8" t="n">
-        <v>1073.534970481817</v>
+        <v>1018.506281012309</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4878,46 +4880,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>437.5354894428046</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="C10" t="n">
-        <v>268.5993065148977</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D10" t="n">
-        <v>268.5993065148977</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942403</v>
+        <v>598.1004456620627</v>
       </c>
       <c r="T10" t="n">
-        <v>437.5354894428046</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="U10" t="n">
-        <v>437.5354894428046</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="V10" t="n">
-        <v>437.5354894428046</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="W10" t="n">
-        <v>437.5354894428046</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="X10" t="n">
-        <v>437.5354894428046</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="Y10" t="n">
-        <v>437.5354894428046</v>
+        <v>370.7922583306645</v>
       </c>
     </row>
     <row r="11">
@@ -5018,31 +5020,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,31 +5059,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5115,31 +5117,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>879.2482765610114</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="C13" t="n">
-        <v>710.3120936331045</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="D13" t="n">
-        <v>560.1954542207687</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X13" t="n">
-        <v>1281.689320534781</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y13" t="n">
-        <v>1060.896741391251</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,31 +5263,31 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5294,7 +5296,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5312,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5358,13 +5360,13 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>1206.718781115524</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395485</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N15" t="n">
         <v>1843.901542059518</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1096.475226584133</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C16" t="n">
-        <v>927.5390436562259</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D16" t="n">
-        <v>777.4224042438901</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E16" t="n">
-        <v>629.509310661497</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F16" t="n">
-        <v>482.6193631635866</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>314.4440414834072</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>164.0260330313505</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="Y16" t="n">
-        <v>1278.123691414372</v>
+        <v>1187.92115703528</v>
       </c>
     </row>
     <row r="17">
@@ -5513,16 +5515,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5531,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5549,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5601,7 +5603,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>773.166147484815</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C19" t="n">
-        <v>604.2299645569082</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>454.1133251445724</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>306.2002315621793</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>159.3102840642689</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.231782352015</v>
+        <v>1186.00103929694</v>
       </c>
       <c r="W19" t="n">
-        <v>954.8146123150548</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="X19" t="n">
-        <v>954.8146123150548</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y19" t="n">
-        <v>954.8146123150548</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="20">
@@ -5738,25 +5740,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5838,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5847,10 +5849,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>564.1830073829216</v>
+        <v>4105.281465137647</v>
       </c>
       <c r="C22" t="n">
-        <v>395.2468244550147</v>
+        <v>3936.34528220974</v>
       </c>
       <c r="D22" t="n">
-        <v>245.130185042679</v>
+        <v>3786.228642797404</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>3786.228642797404</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>3786.228642797404</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U22" t="n">
-        <v>1298.996260473455</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="V22" t="n">
-        <v>1298.996260473455</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="W22" t="n">
-        <v>1194.613602254709</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="X22" t="n">
-        <v>966.6240513566914</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="Y22" t="n">
-        <v>745.8314722131613</v>
+        <v>4105.281465137647</v>
       </c>
     </row>
     <row r="23">
@@ -5963,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899127</v>
@@ -6011,28 +6013,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L24" t="n">
-        <v>1206.718781115523</v>
+        <v>2771.824048372323</v>
       </c>
       <c r="M24" t="n">
-        <v>1514.038914395485</v>
+        <v>3484.747546292011</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059518</v>
+        <v>4289.159124556162</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>4568.699189774859</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S24" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T24" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U24" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W24" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X24" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y24" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3628.091576844582</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.155393916675</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916675</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916675</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916675</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916675</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>4326.074044281177</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U25" t="n">
-        <v>4064.424529880708</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V25" t="n">
-        <v>3809.740041674821</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="W25" t="n">
-        <v>3809.740041674821</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="X25" t="n">
-        <v>3809.740041674821</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="Y25" t="n">
-        <v>3809.740041674821</v>
+        <v>986.0022165609669</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6218,7 +6220,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6227,22 +6229,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6257,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6312,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1141.200876391121</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C28" t="n">
-        <v>972.2646934632137</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D28" t="n">
-        <v>822.1480540508779</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684848</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6415,19 +6417,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557902</v>
+        <v>1130.219432619097</v>
       </c>
       <c r="W28" t="n">
-        <v>1498.916270557902</v>
+        <v>840.8022625821368</v>
       </c>
       <c r="X28" t="n">
-        <v>1498.916270557902</v>
+        <v>612.8127116841194</v>
       </c>
       <c r="Y28" t="n">
-        <v>1322.84934122136</v>
+        <v>392.0201325405893</v>
       </c>
     </row>
     <row r="29">
@@ -6440,70 +6442,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2500.819361250802</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>2911.709630095315</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>3158.474758001779</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>3465.794891281741</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N30" t="n">
-        <v>3795.657518945774</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>4075.197584164471</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>4555.115143601277</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>4850.224560916991</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>121.7597025423711</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="C31" t="n">
-        <v>121.7597025423711</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="D31" t="n">
-        <v>121.7597025423711</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="E31" t="n">
-        <v>121.7597025423711</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F31" t="n">
-        <v>121.7597025423711</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G31" t="n">
-        <v>121.7597025423711</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974663</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.48306298006</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585743</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557899</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557899</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473451</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.210845262957</v>
+        <v>4520.375241843982</v>
       </c>
       <c r="U31" t="n">
-        <v>786.082206476515</v>
+        <v>4231.24660305754</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706282</v>
+        <v>3976.562114851653</v>
       </c>
       <c r="W31" t="n">
-        <v>531.3977182706282</v>
+        <v>3687.144944814692</v>
       </c>
       <c r="X31" t="n">
-        <v>303.4081673726108</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="Y31" t="n">
-        <v>303.4081673726108</v>
+        <v>3459.155393916675</v>
       </c>
     </row>
     <row r="32">
@@ -6677,31 +6679,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6722,22 +6724,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
         <v>3205.060556590537</v>
@@ -6774,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6795,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>506.7814158330673</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="C34" t="n">
-        <v>506.7814158330673</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D34" t="n">
-        <v>356.6647764207315</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E34" t="n">
-        <v>208.7516828383384</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F34" t="n">
-        <v>208.7516828383384</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6862,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6883,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1360.997425915349</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1137.212010704854</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>1137.212010704854</v>
+        <v>1055.812239387629</v>
       </c>
       <c r="V34" t="n">
-        <v>1137.212010704854</v>
+        <v>1055.812239387629</v>
       </c>
       <c r="W34" t="n">
-        <v>1137.212010704854</v>
+        <v>766.3950693506686</v>
       </c>
       <c r="X34" t="n">
-        <v>909.2224598068372</v>
+        <v>766.3950693506686</v>
       </c>
       <c r="Y34" t="n">
-        <v>688.429880663307</v>
+        <v>766.3950693506686</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6929,25 +6931,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6956,31 +6958,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>4075.197584164472</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>4555.115143601278</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>4850.224560916992</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7099,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7123,22 +7125,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T37" t="n">
-        <v>1164.055751909234</v>
+        <v>1269.971530765645</v>
       </c>
       <c r="U37" t="n">
-        <v>874.927113122792</v>
+        <v>980.8428919792033</v>
       </c>
       <c r="V37" t="n">
-        <v>874.927113122792</v>
+        <v>726.1584037733164</v>
       </c>
       <c r="W37" t="n">
-        <v>727.647686332073</v>
+        <v>436.7412337363558</v>
       </c>
       <c r="X37" t="n">
-        <v>499.6581354340557</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y37" t="n">
-        <v>278.8655562905255</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="38">
@@ -7166,7 +7168,7 @@
         <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7251,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>156.2086957630882</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028584</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>675.0071030383442</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>420.3226148324574</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
@@ -7406,19 +7408,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
         <v>3183.709822619127</v>
@@ -7427,34 +7429,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250804</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>2911.709630095317</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>3158.474758001781</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>3465.794891281742</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>3795.657518945775</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>4075.197584164473</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>4565.745155698579</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S42" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T42" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U42" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W42" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X42" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y42" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1141.200876391121</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="C43" t="n">
-        <v>972.2646934632137</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="D43" t="n">
-        <v>822.1480540508779</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="E43" t="n">
-        <v>674.2349604684848</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>252.147293152278</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>101.7292847002213</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7573,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7591,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557902</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W43" t="n">
-        <v>1498.916270557902</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="X43" t="n">
-        <v>1498.916270557902</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="Y43" t="n">
-        <v>1322.84934122136</v>
+        <v>420.3226148324574</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7670,28 +7672,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028583</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250804</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>2911.709630095317</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>3158.474758001781</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>3465.794891281742</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>3795.657518945775</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>4075.197584164473</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>4565.745155698579</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R45" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S45" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T45" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U45" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W45" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X45" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y45" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="46">
@@ -7780,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028583</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8310,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8781,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>85.30006332127823</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,16 +9008,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>73.53204524670076</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,19 +9716,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>409.7003683229564</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9735,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9969,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10188,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208048</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10604,7 +10606,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10680,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208048</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10899,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11066,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928317</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776736</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298108</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776735</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>77.06777566241341</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>10.654974866147</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>133.5789023442195</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>44.278393308918</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23719,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,16 +23895,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>105.0213077854343</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -23947,16 +23949,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>250.2367267628719</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>102.0241259032645</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -24187,10 +24189,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>183.1841667000327</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>153.6466732318522</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>27.20433314211363</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,19 +24657,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>173.3651261629885</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>44.278393308918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24853,7 +24855,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>124.6166433962717</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24889,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>82.3938331833846</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>61.38115378747509</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>69.11192259839618</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25330,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,22 +25365,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>104.8566210678473</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>140.7163658137792</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25561,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>90.51214010776182</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>192.3581855871784</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>105.9521741567359</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25852,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26074,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338557</v>
+        <v>79.43092547709094</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>854970.3543669375</v>
+        <v>854970.3543669377</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>854970.3543669373</v>
+        <v>854970.3543669375</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>854970.3543669375</v>
+        <v>854970.3543669374</v>
       </c>
     </row>
     <row r="13">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583909</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="E2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.230645907</v>
       </c>
       <c r="F2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="G2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="H2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="I2" t="n">
         <v>527889.230645907</v>
       </c>
-      <c r="G2" t="n">
-        <v>527889.2306459073</v>
-      </c>
-      <c r="H2" t="n">
-        <v>527889.2306459073</v>
-      </c>
-      <c r="I2" t="n">
-        <v>527889.2306459068</v>
-      </c>
       <c r="J2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.230645907</v>
       </c>
       <c r="K2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="L2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="M2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="N2" t="n">
         <v>527889.230645907</v>
       </c>
-      <c r="N2" t="n">
-        <v>527889.2306459071</v>
-      </c>
       <c r="O2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="P2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459072</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.567329602243263e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26436,19 +26438,19 @@
         <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="J4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
         <v>15045.6696214391</v>
@@ -26473,28 +26475,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26506,10 +26508,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871665</v>
       </c>
     </row>
     <row r="6">
@@ -26519,34 +26521,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-275398.7208707855</v>
+        <v>-275398.7208707853</v>
       </c>
       <c r="C6" t="n">
-        <v>314569.158343759</v>
+        <v>314569.1583437589</v>
       </c>
       <c r="D6" t="n">
-        <v>314569.1583437589</v>
+        <v>314569.1583437591</v>
       </c>
       <c r="E6" t="n">
-        <v>-104303.8014011448</v>
+        <v>-104303.8014011446</v>
       </c>
       <c r="F6" t="n">
-        <v>420856.2350757513</v>
+        <v>420856.2350757514</v>
       </c>
       <c r="G6" t="n">
-        <v>420856.2350757517</v>
+        <v>420856.2350757514</v>
       </c>
       <c r="H6" t="n">
-        <v>420856.2350757517</v>
+        <v>420856.2350757514</v>
       </c>
       <c r="I6" t="n">
         <v>420856.2350757511</v>
       </c>
       <c r="J6" t="n">
-        <v>244433.0158831582</v>
+        <v>244433.0158831587</v>
       </c>
       <c r="K6" t="n">
-        <v>420856.2350757513</v>
+        <v>420856.2350757514</v>
       </c>
       <c r="L6" t="n">
         <v>420856.2350757512</v>
@@ -26555,13 +26557,13 @@
         <v>286055.2198419143</v>
       </c>
       <c r="N6" t="n">
-        <v>420856.2350757514</v>
+        <v>420856.2350757513</v>
       </c>
       <c r="O6" t="n">
-        <v>420856.2350757513</v>
+        <v>420856.2350757516</v>
       </c>
       <c r="P6" t="n">
-        <v>420856.2350757512</v>
+        <v>420856.2350757515</v>
       </c>
     </row>
   </sheetData>
@@ -26735,31 +26737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
@@ -26777,7 +26779,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>114.3810177118955</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27391,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>94.65020610977405</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27439,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,13 +27554,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,7 +27593,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>85.7621844489743</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>44.65327491701987</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>85.40302122365165</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,13 +27624,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27664,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27679,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>55.56968306875808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>50.7977217921165</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>98.70207659419441</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>172.3991639903189</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,16 +27861,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>175.9283587234112</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -28017,13 +28019,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>83.4172857910909</v>
       </c>
       <c r="T10" t="n">
-        <v>113.135487577163</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31759,40 +31761,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,10 +31834,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31844,7 +31846,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31853,10 +31855,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31868,7 +31870,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31932,7 +31934,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31944,10 +31946,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,10 +32700,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,37 +32712,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32816,7 +32818,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34360,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34521,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35030,10 +35032,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
-        <v>367.6637655623863</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,16 +35728,16 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>383.956422297167</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
@@ -35884,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,16 +35971,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,22 +36208,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734228</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,22 +36682,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523295</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36999,7 +37001,7 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056001</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37163,13 +37165,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37324,7 +37326,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
         <v>59.8253897034981</v>
@@ -37400,7 +37402,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523295</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221109</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37874,13 +37876,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091983</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38020,25 +38022,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,13 +38098,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
@@ -38111,13 +38113,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091983</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38193,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2197993.724892122</v>
+        <v>2190976.71000041</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>268.352823951585</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>37.40642638822428</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -718,13 +718,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -834,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>200.5196897930034</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>297.3308204398289</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>58.68323102112615</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1062,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>44.10729826219411</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>84.16790000022172</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>210.3346776731617</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481164</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>270.777345985076</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229328</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>14.19510348422592</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491426</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>128.728253158928</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>33.35146980185858</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>64.49208332113096</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.2530778377178</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1824,16 +1824,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>231.0382379337316</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>183.1796758467</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1.900916560956118</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>64.46944256011305</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>13.60014786677565</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>114.9309043193593</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>14.73664328357057</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>78.77251716083951</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2848,7 +2848,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -3003,22 +3003,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>139.1537278750046</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>271.7818641996879</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>169.8277167599791</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,19 +3240,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>217.1254298001812</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
-        <v>116.6909399905419</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>58.4016882597743</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>4.467071307536031</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>41.6983007991486</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U46" t="n">
-        <v>206.8064269214864</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1001.280783616703</v>
+        <v>1229.941371236149</v>
       </c>
       <c r="C2" t="n">
-        <v>632.3182666762915</v>
+        <v>860.9788542957369</v>
       </c>
       <c r="D2" t="n">
-        <v>632.3182666762915</v>
+        <v>502.7131556889864</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762915</v>
+        <v>502.7131556889864</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>91.72725089937887</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224075</v>
@@ -4342,7 +4342,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4366,16 +4366,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.344242153658</v>
+        <v>1229.941371236149</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4415,16 +4415,16 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>348.0202652891861</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V4" t="n">
-        <v>348.0202652891861</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1359.546482223453</v>
+        <v>847.8148076117928</v>
       </c>
       <c r="C5" t="n">
-        <v>990.5839652830418</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762914</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224075</v>
@@ -4585,10 +4585,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4597,22 +4597,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2582.844410618286</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2329.082625256377</v>
       </c>
       <c r="V5" t="n">
-        <v>2423.485734520778</v>
+        <v>1998.019737912806</v>
       </c>
       <c r="W5" t="n">
-        <v>2423.485734520778</v>
+        <v>1998.019737912806</v>
       </c>
       <c r="X5" t="n">
-        <v>2050.019976259699</v>
+        <v>1624.553979651726</v>
       </c>
       <c r="Y5" t="n">
-        <v>1659.880644283887</v>
+        <v>1234.414647675915</v>
       </c>
     </row>
     <row r="6">
@@ -4643,10 +4643,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
         <v>309.190302261463</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>285.8510101265796</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="C7" t="n">
-        <v>285.8510101265796</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="D7" t="n">
-        <v>285.8510101265796</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="E7" t="n">
-        <v>285.8510101265796</v>
+        <v>291.0422802786093</v>
       </c>
       <c r="F7" t="n">
-        <v>138.9610626286692</v>
+        <v>144.1523327806989</v>
       </c>
       <c r="G7" t="n">
-        <v>138.9610626286692</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>138.9610626286692</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245969</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V7" t="n">
-        <v>513.8405610245969</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W7" t="n">
-        <v>513.8405610245969</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="X7" t="n">
-        <v>285.8510101265796</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="Y7" t="n">
-        <v>285.8510101265796</v>
+        <v>438.9553738610024</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806.0470106353782</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>806.0470106353782</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>806.0470106353782</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177357</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="W8" t="n">
-        <v>1782.111371249201</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="X8" t="n">
-        <v>1408.645612988121</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1018.506281012309</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4880,22 +4880,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204944</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.447464661593</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.063382757265</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414848</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4904,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.7922583306645</v>
+        <v>68.28147018826945</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027576</v>
+        <v>68.28147018826945</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>68.28147018826945</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>68.28147018826945</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>68.28147018826945</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>68.28147018826945</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>68.28147018826945</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>68.28147018826945</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="S10" t="n">
-        <v>598.1004456620627</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="T10" t="n">
-        <v>370.7922583306645</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="U10" t="n">
-        <v>370.7922583306645</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="V10" t="n">
-        <v>370.7922583306645</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="W10" t="n">
-        <v>370.7922583306645</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="X10" t="n">
-        <v>370.7922583306645</v>
+        <v>470.7225141620393</v>
       </c>
       <c r="Y10" t="n">
-        <v>370.7922583306645</v>
+        <v>249.9299350185092</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571608</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636247</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>130.9054447954965</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="C13" t="n">
-        <v>130.9054447954965</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="D13" t="n">
-        <v>130.9054447954965</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E13" t="n">
-        <v>130.9054447954965</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F13" t="n">
-        <v>130.9054447954965</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>130.9054447954965</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324571</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W13" t="n">
-        <v>130.9054447954965</v>
+        <v>955.3028486353285</v>
       </c>
       <c r="X13" t="n">
-        <v>130.9054447954965</v>
+        <v>727.3132977373111</v>
       </c>
       <c r="Y13" t="n">
-        <v>130.9054447954965</v>
+        <v>727.3132977373111</v>
       </c>
     </row>
     <row r="14">
@@ -5260,34 +5260,34 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5296,7 +5296,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>659.3731057211721</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1039.489963795367</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F16" t="n">
         <v>527.3450129705744</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>1187.92115703528</v>
+        <v>1265.544313049083</v>
       </c>
       <c r="W16" t="n">
-        <v>1187.92115703528</v>
+        <v>976.1271430121219</v>
       </c>
       <c r="X16" t="n">
-        <v>1187.92115703528</v>
+        <v>748.1375921141046</v>
       </c>
       <c r="Y16" t="n">
-        <v>1187.92115703528</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="17">
@@ -5515,16 +5515,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5536,7 +5536,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1313.886294955175</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U19" t="n">
-        <v>1187.92115703528</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V19" t="n">
-        <v>1186.00103929694</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>896.5838692599799</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>668.5943183619626</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>447.8017392184324</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5734,31 +5734,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5840,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4105.281465137647</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>3936.34528220974</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>3786.228642797404</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>3786.228642797404</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3786.228642797404</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4549.85945949167</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>4326.074044281177</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>4326.074044281177</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>4326.074044281177</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>4326.074044281177</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>4326.074044281177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>4105.281465137647</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5968,22 +5968,22 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -5992,16 +5992,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6013,22 +6013,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>2771.824048372323</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>3484.747546292011</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>4289.159124556162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>4773.721670557069</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>986.0022165609669</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6150,13 +6150,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347409</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609669</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V25" t="n">
-        <v>986.0022165609669</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W25" t="n">
-        <v>986.0022165609669</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X25" t="n">
-        <v>986.0022165609669</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>986.0022165609669</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6205,16 +6205,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6223,49 +6223,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6302,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>392.0201325405893</v>
+        <v>579.0685056491545</v>
       </c>
       <c r="C28" t="n">
-        <v>392.0201325405893</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="D28" t="n">
-        <v>392.0201325405893</v>
+        <v>260.0156833089119</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>112.1025897265188</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>112.1025897265188</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6417,19 +6417,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>1130.219432619097</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W28" t="n">
-        <v>840.8022625821368</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X28" t="n">
-        <v>612.8127116841194</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y28" t="n">
-        <v>392.0201325405893</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,25 +6448,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6475,7 +6475,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6484,13 +6484,13 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>4520.375241843982</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>4231.24660305754</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V31" t="n">
-        <v>3976.562114851653</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W31" t="n">
-        <v>3687.144944814692</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X31" t="n">
-        <v>3459.155393916675</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6694,7 +6694,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6703,7 +6703,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6712,7 +6712,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6733,19 +6733,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>584.7466045204288</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028584</v>
@@ -6888,22 +6888,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>1055.812239387629</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>1055.812239387629</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W34" t="n">
-        <v>766.3950693506686</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X34" t="n">
-        <v>766.3950693506686</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y34" t="n">
-        <v>766.3950693506686</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,25 +6931,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6958,31 +6958,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1269.971530765645</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>980.8428919792033</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>726.1584037733164</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>436.7412337363558</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7162,13 +7162,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7201,10 +7201,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7253,16 +7253,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N39" t="n">
         <v>2051.878056918008</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>324.3840174432676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>324.3840174432676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>324.3840174432676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>324.3840174432676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>324.3840174432676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>156.2086957630882</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>954.8146123150548</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7432,31 +7432,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2500.819361250804</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>2911.709630095317</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>3158.474758001781</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>3465.794891281742</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>3795.657518945775</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>4075.197584164473</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>4565.745155698579</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014293</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>420.3226148324574</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="C43" t="n">
-        <v>420.3226148324574</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D43" t="n">
-        <v>420.3226148324574</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E43" t="n">
-        <v>420.3226148324574</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F43" t="n">
-        <v>420.3226148324574</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
-        <v>252.147293152278</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>101.7292847002213</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>675.0071030383442</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>420.3226148324574</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W43" t="n">
-        <v>420.3226148324574</v>
+        <v>912.983647808858</v>
       </c>
       <c r="X43" t="n">
-        <v>420.3226148324574</v>
+        <v>912.983647808858</v>
       </c>
       <c r="Y43" t="n">
-        <v>420.3226148324574</v>
+        <v>912.983647808858</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>2500.819361250804</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>2911.709630095317</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>3158.474758001781</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>3465.794891281742</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>3795.657518945775</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>4075.197584164473</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>4565.745155698579</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9238900028825</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783507</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8780,19 +8780,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>230.7151863772035</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776759</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>73.53204524670076</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9658,7 +9658,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.7003683229564</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,19 +10901,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>409.700368322958</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776736</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776735</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,10 +23433,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>77.06777566241341</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>222.03091501546</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>133.5789023442195</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23712,16 +23712,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>21.09940539009639</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>14.74113413690324</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>250.2367267628719</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24129,10 +24129,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>102.0241259032645</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>153.6466732318522</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>171.306448079218</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>151.756925179807</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24657,10 +24657,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>173.3651261629885</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24891,22 +24891,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>82.3938331833846</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>14.45548819888944</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>10.00426342195823</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25128,19 +25128,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>69.11192259839618</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25332,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
-        <v>104.8566210678473</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>90.51214010776182</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>105.9521741567359</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>244.8246975374424</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -26076,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U46" t="n">
-        <v>79.43092547709094</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>854970.3543669377</v>
+        <v>854970.3543669375</v>
       </c>
     </row>
     <row r="9">
@@ -26316,46 +26316,46 @@
         <v>554203.1946583912</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583909</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583912</v>
       </c>
       <c r="E2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="F2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="G2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="H2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="I2" t="n">
+        <v>527889.2306459068</v>
+      </c>
+      <c r="J2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="K2" t="n">
         <v>527889.230645907</v>
       </c>
-      <c r="F2" t="n">
-        <v>527889.2306459071</v>
-      </c>
-      <c r="G2" t="n">
-        <v>527889.2306459071</v>
-      </c>
-      <c r="H2" t="n">
-        <v>527889.2306459071</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
         <v>527889.230645907</v>
       </c>
-      <c r="J2" t="n">
-        <v>527889.230645907</v>
-      </c>
-      <c r="K2" t="n">
-        <v>527889.2306459071</v>
-      </c>
-      <c r="L2" t="n">
-        <v>527889.2306459069</v>
-      </c>
       <c r="M2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459068</v>
       </c>
       <c r="N2" t="n">
         <v>527889.230645907</v>
       </c>
       <c r="O2" t="n">
-        <v>527889.2306459072</v>
+        <v>527889.230645907</v>
       </c>
       <c r="P2" t="n">
-        <v>527889.2306459072</v>
+        <v>527889.2306459069</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768958</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.567329602243263e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512226</v>
+        <v>156774.9582512225</v>
       </c>
       <c r="E4" t="n">
         <v>15045.6696214391</v>
@@ -26438,7 +26438,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
         <v>15045.6696214391</v>
@@ -26456,10 +26456,10 @@
         <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
     </row>
     <row r="5">
@@ -26472,13 +26472,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26487,13 +26487,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-275398.7208707853</v>
+        <v>-275398.7208707854</v>
       </c>
       <c r="C6" t="n">
-        <v>314569.1583437589</v>
+        <v>314569.1583437591</v>
       </c>
       <c r="D6" t="n">
-        <v>314569.1583437591</v>
+        <v>314569.158343759</v>
       </c>
       <c r="E6" t="n">
-        <v>-104303.8014011446</v>
+        <v>-105278.3926608663</v>
       </c>
       <c r="F6" t="n">
-        <v>420856.2350757514</v>
+        <v>419881.6438160295</v>
       </c>
       <c r="G6" t="n">
-        <v>420856.2350757514</v>
+        <v>419881.6438160295</v>
       </c>
       <c r="H6" t="n">
-        <v>420856.2350757514</v>
+        <v>419881.6438160295</v>
       </c>
       <c r="I6" t="n">
-        <v>420856.2350757511</v>
+        <v>419881.6438160294</v>
       </c>
       <c r="J6" t="n">
-        <v>244433.0158831587</v>
+        <v>243458.4246234367</v>
       </c>
       <c r="K6" t="n">
-        <v>420856.2350757514</v>
+        <v>419881.6438160297</v>
       </c>
       <c r="L6" t="n">
-        <v>420856.2350757512</v>
+        <v>419881.6438160297</v>
       </c>
       <c r="M6" t="n">
-        <v>286055.2198419143</v>
+        <v>285080.6285821924</v>
       </c>
       <c r="N6" t="n">
-        <v>420856.2350757513</v>
+        <v>419881.6438160297</v>
       </c>
       <c r="O6" t="n">
-        <v>420856.2350757516</v>
+        <v>419881.6438160297</v>
       </c>
       <c r="P6" t="n">
-        <v>420856.2350757515</v>
+        <v>419881.6438160295</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26755,13 +26755,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>114.3810177118955</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>376.3777436325707</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,13 +27438,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,13 +27593,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>85.7621844489743</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>85.40302122365165</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>157.7650893365316</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27782,22 +27782,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>123.2025039968568</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>50.7977217921165</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>172.3991639903189</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27912,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>98.95375469339302</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>31.00485570431104</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>83.4172857910909</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554471</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633804</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727385</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473558</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141115</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.84709008118892</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396482</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034986</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619157</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078615</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644447</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813581</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302245</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M10" t="n">
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175851</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383806</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197226</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315613</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31761,40 +31761,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,10 +31834,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31846,7 +31846,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31855,10 +31855,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31934,7 +31934,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31946,10 +31946,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,10 +32700,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,37 +32712,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32818,7 +32818,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770696</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262111</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.8110948137342</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.8709020871396</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873155</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>563.9097597752163</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092005</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35734,7 +35734,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>383.956422297167</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
         <v>812.5369477415663</v>
@@ -35746,7 +35746,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,22 +36208,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734228</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R32" t="n">
         <v>59.8253897034981</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734243</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37876,13 +37876,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091983</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091983</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2190976.71000041</v>
+        <v>2195915.972849442</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10017056.05358071</v>
+        <v>10017056.05358072</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,13 +667,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>37.40642638822428</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -946,19 +946,19 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>6.786859782537817</v>
       </c>
       <c r="T5" t="n">
-        <v>58.68323102112615</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>44.10729826219411</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1.941719304022133</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1141,10 +1141,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481164</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>5.983388191319604</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>270.777345985076</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229328</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>14.19510348422592</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491426</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>126.0887386816668</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1429,7 +1429,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>62.618517091279</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1548,7 +1548,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>64.49208332113096</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1618,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>231.0382379337316</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>105.0768221663749</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>183.1796758467</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>203.8435192151915</v>
       </c>
     </row>
     <row r="20">
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2371,7 +2371,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>114.6630798010077</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>114.9309043193593</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>14.73664328357057</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2848,7 +2848,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>271.7818641996879</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>66.70765698000602</v>
       </c>
     </row>
     <row r="32">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>169.8277167599791</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>21.66714102769317</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3903,16 +3903,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3960,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>41.6983007991486</v>
+        <v>54.9711738562435</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,19 +4188,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>150.074449030931</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1229.941371236149</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C2" t="n">
-        <v>860.9788542957369</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D2" t="n">
-        <v>502.7131556889864</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>502.7131556889864</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>91.72725089937887</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4330,10 +4330,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224075</v>
@@ -4342,7 +4342,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X2" t="n">
-        <v>1620.08070321196</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y2" t="n">
-        <v>1229.941371236149</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>847.8148076117928</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C5" t="n">
-        <v>478.8522906713811</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
         <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2635.26498762696</v>
       </c>
       <c r="T5" t="n">
-        <v>2582.844410618286</v>
+        <v>2635.26498762696</v>
       </c>
       <c r="U5" t="n">
-        <v>2329.082625256377</v>
+        <v>2635.26498762696</v>
       </c>
       <c r="V5" t="n">
-        <v>1998.019737912806</v>
+        <v>2304.202100283389</v>
       </c>
       <c r="W5" t="n">
-        <v>1998.019737912806</v>
+        <v>1951.433445013275</v>
       </c>
       <c r="X5" t="n">
-        <v>1624.553979651726</v>
+        <v>1577.967686752195</v>
       </c>
       <c r="Y5" t="n">
-        <v>1234.414647675915</v>
+        <v>1187.828354776384</v>
       </c>
     </row>
     <row r="6">
@@ -4643,10 +4643,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
         <v>309.190302261463</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>438.9553738610024</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="C7" t="n">
-        <v>438.9553738610024</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="D7" t="n">
-        <v>438.9553738610024</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E7" t="n">
-        <v>291.0422802786093</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="F7" t="n">
-        <v>144.1523327806989</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>726.1676515761091</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>726.1676515761091</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>726.1676515761091</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>726.1676515761091</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610024</v>
+        <v>726.1676515761091</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610024</v>
+        <v>726.1676515761091</v>
       </c>
       <c r="W7" t="n">
-        <v>438.9553738610024</v>
+        <v>726.1676515761091</v>
       </c>
       <c r="X7" t="n">
-        <v>438.9553738610024</v>
+        <v>726.1676515761091</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.9553738610024</v>
+        <v>726.1676515761091</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177357</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548717</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548717</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548717</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548717</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548717</v>
+        <v>2305.013687749267</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548717</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1578.779274218073</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204944</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.447464661593</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.063382757265</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414848</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>68.28147018826945</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>68.28147018826945</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>68.28147018826945</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>68.28147018826945</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>68.28147018826945</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>68.28147018826945</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>68.28147018826945</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>68.28147018826945</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600566</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600566</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600566</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600566</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600566</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600566</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600566</v>
+        <v>409.2948950230958</v>
       </c>
       <c r="X10" t="n">
-        <v>470.7225141620393</v>
+        <v>181.3053441250784</v>
       </c>
       <c r="Y10" t="n">
-        <v>249.9299350185092</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5041,25 +5041,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5123,22 +5123,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.683698656582</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1925.814757496976</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2446.115379232724</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>545.6648329070714</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="C13" t="n">
-        <v>545.6648329070714</v>
+        <v>657.1994242851239</v>
       </c>
       <c r="D13" t="n">
-        <v>395.5481934947356</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347408</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>1020.446367141521</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W13" t="n">
-        <v>955.3028486353285</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="X13" t="n">
-        <v>727.3132977373111</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="Y13" t="n">
-        <v>727.3132977373111</v>
+        <v>720.4504516500522</v>
       </c>
     </row>
     <row r="14">
@@ -5257,22 +5257,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5281,13 +5281,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5305,22 +5305,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5360,19 +5360,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>709.4934589365146</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>527.3450129705744</v>
+        <v>732.6596981028219</v>
       </c>
       <c r="C16" t="n">
-        <v>527.3450129705744</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="D16" t="n">
-        <v>527.3450129705744</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E16" t="n">
-        <v>527.3450129705744</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5439,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5466,22 +5466,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V16" t="n">
-        <v>1265.544313049083</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W16" t="n">
-        <v>976.1271430121219</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="X16" t="n">
-        <v>748.1375921141046</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="Y16" t="n">
-        <v>527.3450129705744</v>
+        <v>914.3081629330617</v>
       </c>
     </row>
     <row r="17">
@@ -5509,7 +5509,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5518,7 +5518,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5542,7 +5542,7 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5597,19 +5597,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5676,19 +5676,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5700,22 +5700,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1313.886294955175</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
-        <v>1090.100879744681</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1090.100879744681</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>820.5263570570734</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>531.1091870201128</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>303.1196361220955</v>
       </c>
       <c r="Y19" t="n">
         <v>97.21709146028584</v>
@@ -5746,16 +5746,16 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5764,7 +5764,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5831,28 +5831,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5937,7 +5937,7 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
         <v>1158.436939387592</v>
@@ -6086,10 +6086,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>472.4860691490221</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>472.4860691490221</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>472.4860691490221</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>324.572975566629</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>324.572975566629</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6177,22 +6177,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119728</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U25" t="n">
-        <v>1271.749344574921</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V25" t="n">
-        <v>1017.064856369034</v>
+        <v>874.927113122792</v>
       </c>
       <c r="W25" t="n">
-        <v>727.647686332073</v>
+        <v>874.927113122792</v>
       </c>
       <c r="X25" t="n">
-        <v>499.6581354340557</v>
+        <v>874.927113122792</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>654.1345339792618</v>
       </c>
     </row>
     <row r="26">
@@ -6205,16 +6205,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6235,19 +6235,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014293</v>
@@ -6265,7 +6265,7 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6323,10 +6323,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>579.0685056491545</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>410.1323227212476</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>260.0156833089119</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>112.1025897265188</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>112.1025897265188</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028587</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>1209.499100520942</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>981.5095496229244</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>760.7169704793943</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6454,34 +6454,34 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.627437207831</v>
@@ -6490,25 +6490,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6560,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028587</v>
@@ -6654,19 +6654,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>800.6837097077201</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>545.9992215018333</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W31" t="n">
-        <v>545.9992215018333</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X31" t="n">
-        <v>318.0096706038159</v>
+        <v>496.665036439558</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>429.2835647425823</v>
       </c>
     </row>
     <row r="32">
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7162,13 +7162,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
     <row r="41">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>731.3351829786183</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C43" t="n">
-        <v>562.3990000507114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>955.1031435655738</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>912.983647808858</v>
+        <v>675.7912901164498</v>
       </c>
       <c r="X43" t="n">
-        <v>912.983647808858</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="Y43" t="n">
-        <v>912.983647808858</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028584</v>
@@ -7836,22 +7836,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8546,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783507</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8780,16 +8780,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>230.7151863772035</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>91.23759968302141</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9011,25 +9011,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>176.7176547498458</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298298</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>409.7003683229593</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928333</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720745</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>104.6283040073488</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,22 +23466,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>222.03091501546</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,22 +23706,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>21.09940539009639</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>113.5078311857199</v>
       </c>
     </row>
     <row r="17">
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>14.74113413690324</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>14.74113413690327</v>
       </c>
     </row>
     <row r="20">
@@ -24177,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>51.83048866236986</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,19 +24417,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>171.306448079218</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>151.756925179807</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24651,16 +24651,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24855,7 +24855,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>14.45548819888944</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>151.8769963720888</v>
       </c>
     </row>
     <row r="32">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>10.00426342195823</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25125,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25560,13 +25560,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>123.7539069952381</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25791,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25839,7 +25839,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>244.8246975374424</v>
+        <v>231.5518244803475</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26076,19 +26076,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>75.63520635810613</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>854970.3543669375</v>
+        <v>854970.3543669374</v>
       </c>
     </row>
     <row r="6">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>854970.3543669375</v>
+        <v>854970.3543669374</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>854970.3543669374</v>
+        <v>854970.3543669375</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>854970.3543669375</v>
+        <v>854970.3543669374</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583908</v>
       </c>
       <c r="E2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="F2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459068</v>
       </c>
       <c r="G2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="H2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.230645907</v>
       </c>
       <c r="I2" t="n">
-        <v>527889.2306459068</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="J2" t="n">
         <v>527889.2306459071</v>
       </c>
       <c r="K2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="L2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459073</v>
       </c>
       <c r="M2" t="n">
-        <v>527889.2306459068</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="N2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="O2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="P2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459071</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768958</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512225</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
         <v>15045.6696214391</v>
@@ -26472,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
+        <v>82859.07806340946</v>
+      </c>
+      <c r="D5" t="n">
         <v>82859.07806340947</v>
-      </c>
-      <c r="D5" t="n">
-        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-275398.7208707854</v>
       </c>
       <c r="C6" t="n">
-        <v>314569.1583437591</v>
+        <v>314569.1583437589</v>
       </c>
       <c r="D6" t="n">
-        <v>314569.158343759</v>
+        <v>314569.1583437587</v>
       </c>
       <c r="E6" t="n">
-        <v>-105278.3926608663</v>
+        <v>-104401.260527117</v>
       </c>
       <c r="F6" t="n">
-        <v>419881.6438160295</v>
+        <v>420758.7759497789</v>
       </c>
       <c r="G6" t="n">
-        <v>419881.6438160295</v>
+        <v>420758.7759497792</v>
       </c>
       <c r="H6" t="n">
-        <v>419881.6438160295</v>
+        <v>420758.775949779</v>
       </c>
       <c r="I6" t="n">
-        <v>419881.6438160294</v>
+        <v>420758.7759497794</v>
       </c>
       <c r="J6" t="n">
-        <v>243458.4246234367</v>
+        <v>244335.5567571862</v>
       </c>
       <c r="K6" t="n">
-        <v>419881.6438160297</v>
+        <v>420758.7759497791</v>
       </c>
       <c r="L6" t="n">
-        <v>419881.6438160297</v>
+        <v>420758.7759497795</v>
       </c>
       <c r="M6" t="n">
-        <v>285080.6285821924</v>
+        <v>285957.7607159421</v>
       </c>
       <c r="N6" t="n">
-        <v>419881.6438160297</v>
+        <v>420758.7759497794</v>
       </c>
       <c r="O6" t="n">
-        <v>419881.6438160297</v>
+        <v>420758.7759497793</v>
       </c>
       <c r="P6" t="n">
-        <v>419881.6438160295</v>
+        <v>420758.7759497793</v>
       </c>
     </row>
   </sheetData>
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545557</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545559</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>452.6387412370135</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="E3" t="n">
-        <v>452.6387412370133</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,13 +27387,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>376.3777436325707</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27539,19 +27539,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,13 +27593,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>157.4983735401874</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>167.6288530264337</v>
       </c>
       <c r="T5" t="n">
-        <v>157.7650893365316</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>123.2025039968568</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>27.18103065089216</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27861,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>168.4323246176519</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27912,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>98.95375469339302</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>31.00485570431104</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>92.49591467042796</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554471</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081579</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633804</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727385</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473558</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141115</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.84709008118892</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396482</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034986</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619157</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078615</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644447</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813581</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302245</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175851</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383806</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197226</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315613</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31998,40 +31998,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,10 +32071,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32083,7 +32083,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32092,10 +32092,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32171,7 +32171,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,10 +32183,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32235,40 +32235,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,10 +32308,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
@@ -32320,7 +32320,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724845</v>
@@ -32329,10 +32329,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32408,7 +32408,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32420,10 +32420,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U19" t="n">
         <v>0.08167695791351813</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343421</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530454</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770696</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262111</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137342</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.8709020871396</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873155</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
@@ -35500,16 +35500,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>563.9097597752163</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>179.2506324680955</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>425.9753597058701</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
         <v>59.82538970349858</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>720.1247453734254</v>
       </c>
       <c r="N18" t="n">
         <v>812.5369477415663</v>
@@ -35983,7 +35983,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36050,7 +36050,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36378,7 +36378,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
         <v>59.8253897034981</v>
@@ -36454,13 +36454,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36691,13 +36691,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415086</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
@@ -36928,13 +36928,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37089,10 +37089,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
